--- a/models/shap_feature_selection.xlsx
+++ b/models/shap_feature_selection.xlsx
@@ -452,7 +452,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>14.06248953012538</v>
+        <v>13.81028674575134</v>
       </c>
     </row>
     <row r="3">
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>9.608913402056293</v>
+        <v>9.726040942901731</v>
       </c>
     </row>
     <row r="4">
@@ -472,7 +472,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>7.410416576679168</v>
+        <v>7.447258154203842</v>
       </c>
     </row>
     <row r="5">
@@ -482,7 +482,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>7.041599575608355</v>
+        <v>7.124218273207542</v>
       </c>
     </row>
     <row r="6">
@@ -492,7 +492,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>5.964825594330768</v>
+        <v>6.043820589583609</v>
       </c>
     </row>
     <row r="7">
@@ -502,27 +502,27 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>5.215226568350277</v>
+        <v>5.311390477960741</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>tempo_producao_pedido_lag1</t>
+          <t>distancia_entrega_metros</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>4.902213956926606</v>
+        <v>5.011339596150536</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>distancia_entrega_metros</t>
+          <t>tempo_producao_pedido_lag1</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>4.876897577382251</v>
+        <v>4.902279703318419</v>
       </c>
     </row>
     <row r="10">
@@ -532,7 +532,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>3.472023171971945</v>
+        <v>3.411117322730909</v>
       </c>
     </row>
     <row r="11">
@@ -542,7 +542,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2.898539511178407</v>
+        <v>2.914604109559192</v>
       </c>
     </row>
     <row r="12">
@@ -552,7 +552,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>2.835381446406345</v>
+        <v>2.827765218286348</v>
       </c>
     </row>
     <row r="13">
@@ -562,7 +562,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>2.769571069316766</v>
+        <v>2.7990934558712</v>
       </c>
     </row>
     <row r="14">
@@ -572,7 +572,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2.710899788313985</v>
+        <v>2.640706191635995</v>
       </c>
     </row>
     <row r="15">
@@ -582,27 +582,27 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>2.675647560554171</v>
+        <v>2.485036461075391</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>cidade_hub</t>
+          <t>zscore_distancia_hub</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1.870689540153947</v>
+        <v>1.913023568027155</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>zscore_distancia_hub</t>
+          <t>cidade_hub</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1.860644423311929</v>
+        <v>1.865198653734794</v>
       </c>
     </row>
     <row r="18">
@@ -612,7 +612,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>1.705115188103854</v>
+        <v>1.670762237620508</v>
       </c>
     </row>
     <row r="19">
@@ -622,7 +622,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1.525143943045749</v>
+        <v>1.50795935541686</v>
       </c>
     </row>
     <row r="20">
@@ -632,7 +632,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1.477071582094055</v>
+        <v>1.426834981468725</v>
       </c>
     </row>
     <row r="21">
@@ -642,7 +642,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>1.155267540945411</v>
+        <v>1.217781945296447</v>
       </c>
     </row>
     <row r="22">
@@ -652,57 +652,57 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1.080995956533915</v>
+        <v>1.152261985015651</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>std_entregas_entregador_hora</t>
+          <t>eficiencia_entrega_do_entregador_mm7</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.8591783972012074</v>
+        <v>0.9119875172097417</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>std_distancia_hub</t>
+          <t>std_entregas_entregador_hora</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.8539417116924041</v>
+        <v>0.8756810096311922</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>eficiencia_entrega_do_entregador_mm7</t>
+          <t>fl_modal_entregador</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.8070236749384505</v>
+        <v>0.8440680713962284</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>media_distancia_loja</t>
+          <t>std_distancia_hub</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.7925561377501701</v>
+        <v>0.7478574204489303</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>fl_modal_entregador</t>
+          <t>media_distancia_loja</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0.7738813465503833</v>
+        <v>0.7201376861564474</v>
       </c>
     </row>
     <row r="28">
@@ -712,97 +712,97 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0.6687327706820244</v>
+        <v>0.7013138835267593</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>fl_tipo_canal</t>
+          <t>distancia_reta_loja_hub_metros</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0.635874635583163</v>
+        <v>0.655470333080062</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>distancia_reta_loja_hub_metros</t>
+          <t>std_distancia_loja</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0.628291086244287</v>
+        <v>0.5855679697733426</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>std_distancia_loja</t>
+          <t>fl_tipo_canal</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0.6250444909962999</v>
+        <v>0.4900441038011222</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>taxa_entrega_cliente</t>
+          <t>qtd_pedidos_loja_ultima_1h</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0.4728363130916953</v>
+        <v>0.4877276615269261</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>media_entregas_loja_hora</t>
+          <t>taxa_entrega_cliente</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0.4517361744736821</v>
+        <v>0.4493476010962285</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>variabilidade_producao_pedido_loja_mm7</t>
+          <t>std_entregas_loja_hora</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0.3990569987011026</v>
+        <v>0.4445221640297861</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>intensidade_horaria_loja</t>
+          <t>escore_complexidade_pedido_taxa</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0.3968581883198793</v>
+        <v>0.3881327765233866</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>escore_complexidade_pedido_taxa</t>
+          <t>intensidade_horaria_loja</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0.3948856912808423</v>
+        <v>0.3774413162299766</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>qtd_pedidos_loja_ultima_1h</t>
+          <t>variabilidade_producao_pedido_loja_mm7</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0.3816985296400704</v>
+        <v>0.3662023719584175</v>
       </c>
     </row>
     <row r="38">
@@ -812,7 +812,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0.2148478274482812</v>
+        <v>0.2558616105971625</v>
       </c>
     </row>
     <row r="39">
@@ -822,7 +822,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0.2087844524137749</v>
+        <v>0.2084569207258378</v>
       </c>
     </row>
     <row r="40">
@@ -832,27 +832,27 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0.1594679141216999</v>
+        <v>0.1604402890556247</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>fl_final_de_semana</t>
+          <t>fl_primeira_quinzena</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0.05141527627997766</v>
+        <v>0.05481487762461991</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>fl_primeira_quinzena</t>
+          <t>fl_final_de_semana</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0.02316399403415987</v>
+        <v>0.03749850444636324</v>
       </c>
     </row>
   </sheetData>

--- a/models/shap_feature_selection.xlsx
+++ b/models/shap_feature_selection.xlsx
@@ -452,7 +452,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>13.81028674575134</v>
+        <v>13.81083146327011</v>
       </c>
     </row>
     <row r="3">
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>9.726040942901731</v>
+        <v>9.726477204503242</v>
       </c>
     </row>
     <row r="4">
@@ -472,7 +472,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>7.447258154203842</v>
+        <v>7.446751568933693</v>
       </c>
     </row>
     <row r="5">
@@ -482,7 +482,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>7.124218273207542</v>
+        <v>7.125406072404135</v>
       </c>
     </row>
     <row r="6">
@@ -492,7 +492,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>6.043820589583609</v>
+        <v>6.044163868488252</v>
       </c>
     </row>
     <row r="7">
@@ -502,7 +502,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>5.311390477960741</v>
+        <v>5.311937634774051</v>
       </c>
     </row>
     <row r="8">
@@ -512,7 +512,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>5.011339596150536</v>
+        <v>5.011432628847875</v>
       </c>
     </row>
     <row r="9">
@@ -522,7 +522,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>4.902279703318419</v>
+        <v>4.902496156179277</v>
       </c>
     </row>
     <row r="10">
@@ -532,7 +532,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>3.411117322730909</v>
+        <v>3.411367642404811</v>
       </c>
     </row>
     <row r="11">
@@ -542,7 +542,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2.914604109559192</v>
+        <v>2.914827560092582</v>
       </c>
     </row>
     <row r="12">
@@ -552,7 +552,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>2.827765218286348</v>
+        <v>2.827862451032308</v>
       </c>
     </row>
     <row r="13">
@@ -562,7 +562,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>2.7990934558712</v>
+        <v>2.799151364284192</v>
       </c>
     </row>
     <row r="14">
@@ -572,7 +572,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2.640706191635995</v>
+        <v>2.640751851675768</v>
       </c>
     </row>
     <row r="15">
@@ -582,7 +582,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>2.485036461075391</v>
+        <v>2.485096406274768</v>
       </c>
     </row>
     <row r="16">
@@ -592,7 +592,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1.913023568027155</v>
+        <v>1.913171350870456</v>
       </c>
     </row>
     <row r="17">
@@ -602,7 +602,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1.865198653734794</v>
+        <v>1.865345213014092</v>
       </c>
     </row>
     <row r="18">
@@ -612,7 +612,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>1.670762237620508</v>
+        <v>1.670570875004986</v>
       </c>
     </row>
     <row r="19">
@@ -622,7 +622,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1.50795935541686</v>
+        <v>1.50832017224525</v>
       </c>
     </row>
     <row r="20">
@@ -632,7 +632,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1.426834981468725</v>
+        <v>1.42691863855233</v>
       </c>
     </row>
     <row r="21">
@@ -642,7 +642,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>1.217781945296447</v>
+        <v>1.227635551204849</v>
       </c>
     </row>
     <row r="22">
@@ -652,7 +652,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1.152261985015651</v>
+        <v>1.152175313566991</v>
       </c>
     </row>
     <row r="23">
@@ -662,7 +662,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.9119875172097417</v>
+        <v>0.9119587098177017</v>
       </c>
     </row>
     <row r="24">
@@ -672,7 +672,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.8756810096311922</v>
+        <v>0.8758292395098153</v>
       </c>
     </row>
     <row r="25">
@@ -682,7 +682,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.8440680713962284</v>
+        <v>0.8443255477569359</v>
       </c>
     </row>
     <row r="26">
@@ -692,7 +692,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.7478574204489303</v>
+        <v>0.7360151103342695</v>
       </c>
     </row>
     <row r="27">
@@ -702,7 +702,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0.7201376861564474</v>
+        <v>0.7201598389842725</v>
       </c>
     </row>
     <row r="28">
@@ -712,7 +712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0.7013138835267593</v>
+        <v>0.7012980874605745</v>
       </c>
     </row>
     <row r="29">
@@ -722,7 +722,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0.655470333080062</v>
+        <v>0.6555336216445764</v>
       </c>
     </row>
     <row r="30">
@@ -732,7 +732,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0.5855679697733426</v>
+        <v>0.5854152385721176</v>
       </c>
     </row>
     <row r="31">
@@ -742,7 +742,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0.4900441038011222</v>
+        <v>0.4901031356382032</v>
       </c>
     </row>
     <row r="32">
@@ -752,27 +752,27 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0.4877276615269261</v>
+        <v>0.487759501947923</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>taxa_entrega_cliente</t>
+          <t>std_entregas_loja_hora</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0.4493476010962285</v>
+        <v>0.4444329695901736</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>std_entregas_loja_hora</t>
+          <t>taxa_entrega_cliente</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0.4445221640297861</v>
+        <v>0.442866706988508</v>
       </c>
     </row>
     <row r="35">
@@ -782,7 +782,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0.3881327765233866</v>
+        <v>0.3902282843935594</v>
       </c>
     </row>
     <row r="36">
@@ -792,7 +792,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0.3774413162299766</v>
+        <v>0.3774605865486653</v>
       </c>
     </row>
     <row r="37">
@@ -802,7 +802,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0.3662023719584175</v>
+        <v>0.3662324231264781</v>
       </c>
     </row>
     <row r="38">
@@ -812,7 +812,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0.2558616105971625</v>
+        <v>0.255885511845465</v>
       </c>
     </row>
     <row r="39">
@@ -822,7 +822,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0.2084569207258378</v>
+        <v>0.2084767480488801</v>
       </c>
     </row>
     <row r="40">
@@ -832,7 +832,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0.1604402890556247</v>
+        <v>0.160447360228055</v>
       </c>
     </row>
     <row r="41">
@@ -842,7 +842,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0.05481487762461991</v>
+        <v>0.05481767518044035</v>
       </c>
     </row>
     <row r="42">
@@ -852,7 +852,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0.03749850444636324</v>
+        <v>0.03750044109343446</v>
       </c>
     </row>
   </sheetData>
